--- a/keyword.xlsx
+++ b/keyword.xlsx
@@ -20,18 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">research cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">development cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">research and development</t>
+    <t xml:space="preserve">climate change</t>
   </si>
 </sst>
 </file>
@@ -132,34 +123,22 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
